--- a/data/trans_orig/P36BPD04_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>176548</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152533</v>
+        <v>150444</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>202982</v>
+        <v>202461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2560045523773963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2211808417648783</v>
+        <v>0.2181517830373797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2943356524514055</v>
+        <v>0.2935800489943171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -762,19 +762,19 @@
         <v>174090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155169</v>
+        <v>155538</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193693</v>
+        <v>193182</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2380801120811639</v>
+        <v>0.238080112081164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2122042235262195</v>
+        <v>0.2127093845559114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2648887244548442</v>
+        <v>0.2641904821915532</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>479</v>
@@ -783,19 +783,19 @@
         <v>350638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319748</v>
+        <v>317709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>384249</v>
+        <v>385375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2467799605384099</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2250395521156832</v>
+        <v>0.2236048505214937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2704356346802025</v>
+        <v>0.2712284624413183</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>513080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486646</v>
+        <v>487167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>537095</v>
+        <v>539184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7439954476226036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7056643475485943</v>
+        <v>0.7064199510056828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7788191582351216</v>
+        <v>0.7818482169626202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>933</v>
@@ -833,19 +833,19 @@
         <v>557134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>537531</v>
+        <v>538042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>576055</v>
+        <v>575686</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.761919887918836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7351112755451557</v>
+        <v>0.7358095178084471</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7877957764737804</v>
+        <v>0.7872906154440891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1485</v>
@@ -854,19 +854,19 @@
         <v>1070213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1036602</v>
+        <v>1035476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1101103</v>
+        <v>1103142</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7532200394615902</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7295643653197975</v>
+        <v>0.7287715375586816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7749604478843167</v>
+        <v>0.7763951494785063</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>213930</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>184979</v>
+        <v>183893</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247982</v>
+        <v>244418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2039531303664935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.176352755380569</v>
+        <v>0.1753173478693932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2364169929927638</v>
+        <v>0.2330197490288305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>307</v>
@@ -979,19 +979,19 @@
         <v>210457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188556</v>
+        <v>188276</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235380</v>
+        <v>233773</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1966352008990228</v>
+        <v>0.1966352008990229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1761719713484172</v>
+        <v>0.1759102360145565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.21992080126525</v>
+        <v>0.218419358574309</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>493</v>
@@ -1000,19 +1000,19 @@
         <v>424387</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>389625</v>
+        <v>388184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>466710</v>
+        <v>464575</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.200257256710344</v>
+        <v>0.2002572567103439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1838540051673449</v>
+        <v>0.1831740580617951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2202283509080847</v>
+        <v>0.219220869242513</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>834987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>800935</v>
+        <v>804499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>863938</v>
+        <v>865024</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7960468696335066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7635830070072364</v>
+        <v>0.7669802509711697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8236472446194308</v>
+        <v>0.8246826521306068</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1208</v>
@@ -1050,19 +1050,19 @@
         <v>859837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>834914</v>
+        <v>836521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>881738</v>
+        <v>882018</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8033647991009771</v>
+        <v>0.8033647991009774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7800791987347497</v>
+        <v>0.7815806414256909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8238280286515826</v>
+        <v>0.8240897639854434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1986</v>
@@ -1071,19 +1071,19 @@
         <v>1694824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1652501</v>
+        <v>1654636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1729586</v>
+        <v>1731027</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7997427432896562</v>
+        <v>0.7997427432896559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7797716490919154</v>
+        <v>0.7807791307574871</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8161459948326552</v>
+        <v>0.8168259419382049</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>164763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139853</v>
+        <v>139336</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193022</v>
+        <v>191380</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2051654750156834</v>
+        <v>0.2051654750156835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1741475969316006</v>
+        <v>0.1735036288920394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.240354584104735</v>
+        <v>0.2383095481759433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -1196,19 +1196,19 @@
         <v>155225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135033</v>
+        <v>135081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177170</v>
+        <v>177158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.191103422859509</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1662443811093247</v>
+        <v>0.1663024555580235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2181204204347233</v>
+        <v>0.2181057992926109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -1217,19 +1217,19 @@
         <v>319988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287954</v>
+        <v>286364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354180</v>
+        <v>351652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1980944665345003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1782632353614958</v>
+        <v>0.1772785693982536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2192612861728048</v>
+        <v>0.2176967250632251</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>638310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610051</v>
+        <v>611693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663220</v>
+        <v>663737</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7948345249843166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.759645415895265</v>
+        <v>0.7616904518240568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8258524030683996</v>
+        <v>0.8264963711079608</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>837</v>
@@ -1267,19 +1267,19 @@
         <v>657034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>635089</v>
+        <v>635101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677226</v>
+        <v>677178</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8088965771404909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7818795795652768</v>
+        <v>0.7818942007073892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8337556188906753</v>
+        <v>0.8336975444419765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1371</v>
@@ -1288,19 +1288,19 @@
         <v>1295344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1261152</v>
+        <v>1263680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1327378</v>
+        <v>1328968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8019055334654996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7807387138271952</v>
+        <v>0.7823032749367751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8217367646385043</v>
+        <v>0.8227214306017466</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>172482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148399</v>
+        <v>149573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198959</v>
+        <v>199797</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1744101852465041</v>
+        <v>0.1744101852465042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1500575469907187</v>
+        <v>0.1512452879424093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2011832634649677</v>
+        <v>0.2020308259083484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -1413,19 +1413,19 @@
         <v>232503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210495</v>
+        <v>209780</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257437</v>
+        <v>256944</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2079821208326719</v>
+        <v>0.207982120832672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1882949883041417</v>
+        <v>0.1876549566450383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.230285764279698</v>
+        <v>0.2298450717117014</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -1434,19 +1434,19 @@
         <v>404986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>373490</v>
+        <v>372377</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>440991</v>
+        <v>444556</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1922235962647196</v>
+        <v>0.1922235962647197</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1772742767729133</v>
+        <v>0.1767463631930807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2093132851197135</v>
+        <v>0.2110054413360724</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>816462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>789985</v>
+        <v>789147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>840545</v>
+        <v>839371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8255898147534958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7988167365350323</v>
+        <v>0.7979691740916516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8499424530092812</v>
+        <v>0.8487547120575906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1229</v>
@@ -1484,19 +1484,19 @@
         <v>885398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>860464</v>
+        <v>860957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>907406</v>
+        <v>908121</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7920178791673281</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7697142357203023</v>
+        <v>0.7701549282882987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8117050116958584</v>
+        <v>0.8123450433549617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2057</v>
@@ -1505,19 +1505,19 @@
         <v>1701860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1665855</v>
+        <v>1662290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1733356</v>
+        <v>1734469</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8077764037352804</v>
+        <v>0.8077764037352806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7906867148802866</v>
+        <v>0.7889945586639275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8227257232270873</v>
+        <v>0.8232536368069194</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>727723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1150</v>
@@ -1630,19 +1630,19 @@
         <v>772276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1832</v>
@@ -1651,19 +1651,19 @@
         <v>1499999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2802839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2747145</v>
+        <v>2745214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2859244</v>
+        <v>2854807</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7938791196803228</v>
+        <v>0.7938791196803227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7781042637681251</v>
+        <v>0.777557328246287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8098551830137741</v>
+        <v>0.8085983458044518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4207</v>
@@ -1701,19 +1701,19 @@
         <v>2959402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2913936</v>
+        <v>2919933</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2999832</v>
+        <v>3001897</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7930485279580008</v>
+        <v>0.793048527958001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7808647066504594</v>
+        <v>0.7824717948391485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8038828315579082</v>
+        <v>0.8044362088599222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6899</v>
@@ -1722,19 +1722,19 @@
         <v>5762241</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5686525</v>
+        <v>5681519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5828807</v>
+        <v>5823427</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7934523229085921</v>
+        <v>0.793452322908592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7830262574930388</v>
+        <v>0.7823369287730169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8026183178696865</v>
+        <v>0.8018774547219158</v>
       </c>
     </row>
     <row r="18">
